--- a/Doc Tech/Annexe-6-1-Tableau-de-E4.xlsx
+++ b/Doc Tech/Annexe-6-1-Tableau-de-E4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/j_buon_ecole-ipssi_net/Documents/Desktop/Doc Tech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Test\porfolio\Doc Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D5BF42-C00B-46D1-9BFB-FACAA05926D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE76D2-E4A4-4CE5-970F-18C172AEA457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>NOM et prénom : Buon Jérémy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Option :</t>
@@ -126,133 +123,115 @@
     <t>Creation d'entreprise virtuelle (AP1)</t>
   </si>
   <si>
-    <t>08/11/2022 au 12/01/2023</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Installation et configuration de Proxmox</t>
-  </si>
-  <si>
-    <t>Installation et configuration d'un serveur Apache</t>
-  </si>
-  <si>
-    <t>Installation et configuration d'un Windows server 2019</t>
-  </si>
-  <si>
-    <t>Gestion des utilisaturs dans l'Active Directory</t>
-  </si>
-  <si>
-    <t>Mise en place d'un serveur DHCP et DNS (bindp)</t>
-  </si>
-  <si>
     <t>Mise une place d'une Machine Virtuel (Windows, Linux)</t>
   </si>
   <si>
     <t>Creation d'un profile Linkedin</t>
   </si>
   <si>
-    <t>14/10/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veille téchnologique </t>
-  </si>
-  <si>
-    <t>Problématique M2L (AP2)</t>
-  </si>
-  <si>
-    <t>Installation et configuration des clients Windows et Linux</t>
-  </si>
-  <si>
-    <t>Mettre en place un outil de veille technologique (Nom d'outil ou des outils)</t>
-  </si>
-  <si>
     <t>Installation et configuration d’un outil d’inventaire et ticketing (GLPI)</t>
   </si>
   <si>
     <t>Création d'un portfolio avec HTML et CSS (sur base de template)</t>
   </si>
   <si>
-    <t>Mise en place des VLANS sur le cœur du réseau (Cisco)</t>
-  </si>
-  <si>
-    <t>Installation et configuration d’un serveur HAProxy</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
-    <t>Support de niveau 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08/08/2023 au 28/26/2023</t>
-  </si>
-  <si>
-    <t>Elaboration et test d'un scrip de sauvegarde automatique de base de donnée</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08/08/2023 au 28/26/2024</t>
-  </si>
-  <si>
-    <t>Mise en place d'une infratucture serveur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08/08/2023 au 28/26/2025</t>
-  </si>
-  <si>
-    <t>Configuration de postes pour les nouveaux stagières</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08/08/2023 au 28/26/2026</t>
-  </si>
-  <si>
-    <t>Gestion du parc informatique (Ordinateur portable, equipement divers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08/08/2023 au 28/26/2027</t>
-  </si>
-  <si>
-    <t>Gestion des réseaux wifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08/08/2023 au 28/26/2028</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t>14/02/2023 au 18/12/2023</t>
   </si>
   <si>
-    <t>Mise en place de prototype réseaux</t>
-  </si>
-  <si>
-    <t>Mission de test de prototype</t>
-  </si>
-  <si>
-    <t>Analyse d'equipement</t>
-  </si>
-  <si>
-    <t>Formation ciblée pour clients</t>
-  </si>
-  <si>
     <t>13/10/2023 au 14/07/2024</t>
   </si>
   <si>
-    <t>13/10/2023 au 14/07/2025</t>
-  </si>
-  <si>
-    <t>13/10/2023 au 14/07/2026</t>
-  </si>
-  <si>
-    <t>13/10/2023 au 14/07/2027</t>
-  </si>
-  <si>
-    <t>Centre de formation : IPSSI SQY                                                           B.Jeremy_PF/2024.local</t>
+    <t>du 08/11/2022 au 12/01/2023</t>
+  </si>
+  <si>
+    <t>du 24/11/2023 au 28/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> du 08/08/2023 au 28/26/2023</t>
+  </si>
+  <si>
+    <t>14/10/2022 au 14/10/2022</t>
+  </si>
+  <si>
+    <t>14/10/2022 au 07/12/2023</t>
+  </si>
+  <si>
+    <t>05/05/2023 au 12/05/2023</t>
+  </si>
+  <si>
+    <t>25/03/2023 au 08/04/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023 au 21/11/2023</t>
+  </si>
+  <si>
+    <t>01/11/2023 au 28/11/2023</t>
+  </si>
+  <si>
+    <t>SESSION 2024</t>
+  </si>
+  <si>
+    <t>Répondre aux problématique M2L (AP2)</t>
+  </si>
+  <si>
+    <t>Mettre en place un outil de veille technologique (Feedly, Google Alerts)</t>
+  </si>
+  <si>
+    <t>Création d'une script de sauvegarde sur Windows</t>
+  </si>
+  <si>
+    <t>Configuration de postes pour les utilisateurs</t>
+  </si>
+  <si>
+    <t>Gestion du parc informatique (ordinateurs, bornes wifi)</t>
+  </si>
+  <si>
+    <t>Assistance aux utilisateurs</t>
+  </si>
+  <si>
+    <t>Création de documentations techniques</t>
+  </si>
+  <si>
+    <t>Vérification et configuration de switch D-LINK pour les clients</t>
+  </si>
+  <si>
+    <t>Installation et configuration d'un Windows server 2019 AD</t>
+  </si>
+  <si>
+    <t>du 17/10/2023 au 10/02/2024</t>
+  </si>
+  <si>
+    <t>N° candidat : 02341332887</t>
+  </si>
+  <si>
+    <t>Mise en place d’un VLAN sur le cœur du réseau</t>
+  </si>
+  <si>
+    <t>Installation et configuration d’un proxy Squid</t>
+  </si>
+  <si>
+    <t>Installation et configuration d'un Hyperviseur Proxmox VE</t>
+  </si>
+  <si>
+    <t>01/02/2023 au 13/05/2023</t>
+  </si>
+  <si>
+    <t>Refonte des infrastructures de clients</t>
+  </si>
+  <si>
+    <t>Centre de formation : IPSSI Paris</t>
+  </si>
+  <si>
+    <t>URL du portfolio : jems78.github.io/Portfolio_JeremyBuon/</t>
   </si>
 </sst>
 </file>
@@ -262,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,16 +298,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -338,29 +329,166 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
         <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -368,323 +496,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,134 +535,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,10 +733,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1217,176 +1025,141 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ88"/>
+  <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="89.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="6" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.44140625" customWidth="1"/>
     <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="34"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="9" t="s">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1423,23 +1196,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1477,21 +1244,21 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="26">
-        <v>45044</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="19"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -1530,18 +1297,20 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="26">
-        <v>45254</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
-        <v>24</v>
+      <c r="A10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10"/>
@@ -1581,18 +1350,22 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="26">
-        <v>45254</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
-        <v>24</v>
+      <c r="A11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11"/>
@@ -1632,21 +1405,21 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="26">
-        <v>45254</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1685,20 +1458,20 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="26">
-        <v>45010</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1736,21 +1509,19 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1789,19 +1560,19 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="A15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1840,20 +1611,22 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="27">
-        <v>45050</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="19"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1891,20 +1664,22 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="27">
-        <v>45247</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1943,18 +1718,20 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="26">
-        <v>45254</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
+      <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -1992,18 +1769,22 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="28">
-        <v>45051</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
+      <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -2039,24 +1820,18 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="26">
-        <v>45010</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -2094,22 +1869,22 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="7"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -2147,20 +1922,26 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="27">
-        <v>45247</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="7"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -2198,22 +1979,20 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="27">
-        <v>45247</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="7"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -2249,18 +2028,24 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="21"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="7"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -2296,24 +2081,18 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -2350,23 +2129,23 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="A26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -2403,25 +2182,23 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
+      <c r="A27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -2457,22 +2234,24 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
+      <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -2508,24 +2287,16 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -2561,782 +2332,158 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-    </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
-    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-      <c r="AN37"/>
-      <c r="AO37"/>
-      <c r="AP37"/>
-      <c r="AQ37"/>
-    </row>
-    <row r="38" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
-      <c r="AK38"/>
-      <c r="AL38"/>
-      <c r="AM38"/>
-      <c r="AN38"/>
-      <c r="AO38"/>
-      <c r="AP38"/>
-      <c r="AQ38"/>
-    </row>
-    <row r="39" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-      <c r="AN39"/>
-      <c r="AO39"/>
-      <c r="AP39"/>
-      <c r="AQ39"/>
-    </row>
-    <row r="40" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-      <c r="AE40"/>
-      <c r="AF40"/>
-      <c r="AG40"/>
-      <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40"/>
-      <c r="AK40"/>
-      <c r="AL40"/>
-      <c r="AM40"/>
-      <c r="AN40"/>
-      <c r="AO40"/>
-      <c r="AP40"/>
-      <c r="AQ40"/>
-    </row>
-    <row r="41" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
-      <c r="AL41"/>
-      <c r="AM41"/>
-      <c r="AN41"/>
-      <c r="AO41"/>
-      <c r="AP41"/>
-      <c r="AQ41"/>
-    </row>
-    <row r="42" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AF42"/>
-      <c r="AG42"/>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42"/>
-      <c r="AK42"/>
-      <c r="AL42"/>
-      <c r="AM42"/>
-      <c r="AN42"/>
-      <c r="AO42"/>
-      <c r="AP42"/>
-      <c r="AQ42"/>
-    </row>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-    </row>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-    </row>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-    </row>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="31"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="31"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="31"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="31"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="31"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="31"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="31"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="31"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="31"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="31"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="31"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="31"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="31"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="31"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="31"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="31"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="31"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-    </row>
-    <row r="76" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="31"/>
-    </row>
-    <row r="77" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="31"/>
-    </row>
-    <row r="78" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="31"/>
-    </row>
-    <row r="79" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="31"/>
-    </row>
-    <row r="80" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="31"/>
-    </row>
-    <row r="81" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="31"/>
-    </row>
-    <row r="82" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="31"/>
-    </row>
-    <row r="83" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="31"/>
-    </row>
-    <row r="84" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
-    </row>
-    <row r="85" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="31"/>
-    </row>
-    <row r="86" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="31"/>
-    </row>
-    <row r="87" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="31"/>
-    </row>
-    <row r="88" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="31"/>
+      <c r="B75" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3348,6 +2495,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eeac4048-abb2-4e1e-bbad-11f151cfe343">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="07a74d0e-efd7-4d68-88df-8e7e1ec5fead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C18D9E55DDAA9B418FD7959782BBCFF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3e51deb1a3517ebb780bae5e77c6e956">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eeac4048-abb2-4e1e-bbad-11f151cfe343" xmlns:ns3="07a74d0e-efd7-4d68-88df-8e7e1ec5fead" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49b3ed9aeab2722ab0dad1a67c32f0e0" ns2:_="" ns3:_="">
     <xsd:import namespace="eeac4048-abb2-4e1e-bbad-11f151cfe343"/>
@@ -3560,27 +2727,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eeac4048-abb2-4e1e-bbad-11f151cfe343">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="07a74d0e-efd7-4d68-88df-8e7e1ec5fead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8429557-952A-4967-935E-5A29FE964095}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D6FB1DF-23EA-4476-94E8-928E0971D82F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eeac4048-abb2-4e1e-bbad-11f151cfe343"/>
+    <ds:schemaRef ds:uri="07a74d0e-efd7-4d68-88df-8e7e1ec5fead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5465C68-5A53-438F-A2BC-1F135CDB72E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3597,23 +2763,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D6FB1DF-23EA-4476-94E8-928E0971D82F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eeac4048-abb2-4e1e-bbad-11f151cfe343"/>
-    <ds:schemaRef ds:uri="07a74d0e-efd7-4d68-88df-8e7e1ec5fead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8429557-952A-4967-935E-5A29FE964095}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>